--- a/data/pca/factorExposure/factorExposure_2015-10-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-10-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01773540488968996</v>
+        <v>0.01764873080990765</v>
       </c>
       <c r="C2">
-        <v>0.02697563825615898</v>
+        <v>0.03407265350391748</v>
       </c>
       <c r="D2">
-        <v>0.1111472420969228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1279892429553665</v>
+      </c>
+      <c r="E2">
+        <v>0.05028211246625378</v>
+      </c>
+      <c r="F2">
+        <v>0.0317724660203719</v>
+      </c>
+      <c r="G2">
+        <v>0.05339928097342914</v>
+      </c>
+      <c r="H2">
+        <v>-0.1001589570716504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.01321919117867235</v>
+        <v>0.008607309085309003</v>
       </c>
       <c r="C3">
-        <v>0.05008834020486266</v>
+        <v>0.03993116768450872</v>
       </c>
       <c r="D3">
-        <v>0.07453981727946284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.05297834849995131</v>
+      </c>
+      <c r="E3">
+        <v>0.05272635116439704</v>
+      </c>
+      <c r="F3">
+        <v>0.06922163801305978</v>
+      </c>
+      <c r="G3">
+        <v>0.1163128282824437</v>
+      </c>
+      <c r="H3">
+        <v>-0.09626485953729197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04523317530115239</v>
+        <v>0.04688409349714289</v>
       </c>
       <c r="C4">
-        <v>0.06164351886307624</v>
+        <v>0.07301259678844169</v>
       </c>
       <c r="D4">
-        <v>0.125027881865971</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.149393512200265</v>
+      </c>
+      <c r="E4">
+        <v>0.06109194640492071</v>
+      </c>
+      <c r="F4">
+        <v>0.04678198128671208</v>
+      </c>
+      <c r="G4">
+        <v>-0.04478531119802671</v>
+      </c>
+      <c r="H4">
+        <v>-0.01237260323425391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03568970545825244</v>
+        <v>0.03766062300846106</v>
       </c>
       <c r="C6">
-        <v>0.02381420097083348</v>
+        <v>0.02893647532546481</v>
       </c>
       <c r="D6">
-        <v>0.1518715863786104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1405098952469171</v>
+      </c>
+      <c r="E6">
+        <v>0.01259492217907126</v>
+      </c>
+      <c r="F6">
+        <v>0.02954740446811822</v>
+      </c>
+      <c r="G6">
+        <v>-0.01722729482793774</v>
+      </c>
+      <c r="H6">
+        <v>-0.05964563248205713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.017772818139203</v>
+        <v>0.01425948766833461</v>
       </c>
       <c r="C7">
-        <v>0.02673517177463307</v>
+        <v>0.03297721921048869</v>
       </c>
       <c r="D7">
-        <v>0.1063281490090141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0967318385352019</v>
+      </c>
+      <c r="E7">
+        <v>0.009924855601858122</v>
+      </c>
+      <c r="F7">
+        <v>0.03041569295275541</v>
+      </c>
+      <c r="G7">
+        <v>0.008873941797714384</v>
+      </c>
+      <c r="H7">
+        <v>-0.07123900295619733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.009762226762362604</v>
+        <v>0.008349985842743246</v>
       </c>
       <c r="C8">
-        <v>0.03205688422305213</v>
+        <v>0.03610523863921569</v>
       </c>
       <c r="D8">
-        <v>0.0648112282790347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07649037821409931</v>
+      </c>
+      <c r="E8">
+        <v>0.02639649122266244</v>
+      </c>
+      <c r="F8">
+        <v>0.0686185888869362</v>
+      </c>
+      <c r="G8">
+        <v>0.03267245302385308</v>
+      </c>
+      <c r="H8">
+        <v>-0.05568856960521163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03871673856073651</v>
+        <v>0.03865978382321045</v>
       </c>
       <c r="C9">
-        <v>0.05427936931919927</v>
+        <v>0.06508686704016962</v>
       </c>
       <c r="D9">
-        <v>0.1121178252901317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1233724803665666</v>
+      </c>
+      <c r="E9">
+        <v>0.04350007864843305</v>
+      </c>
+      <c r="F9">
+        <v>0.02639492780041698</v>
+      </c>
+      <c r="G9">
+        <v>-0.02588335154714479</v>
+      </c>
+      <c r="H9">
+        <v>-0.01071951580744255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.115660192473491</v>
+        <v>0.1499361167756767</v>
       </c>
       <c r="C10">
-        <v>-0.187373444290156</v>
+        <v>-0.188677466898609</v>
       </c>
       <c r="D10">
-        <v>0.0073829276783326</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01060401229014613</v>
+      </c>
+      <c r="E10">
+        <v>0.03822494895360615</v>
+      </c>
+      <c r="F10">
+        <v>0.05304041437583357</v>
+      </c>
+      <c r="G10">
+        <v>0.001251597023872</v>
+      </c>
+      <c r="H10">
+        <v>0.04292850254673892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03051217130267005</v>
+        <v>0.02867369688565822</v>
       </c>
       <c r="C11">
-        <v>0.04222388179689918</v>
+        <v>0.04552797287514607</v>
       </c>
       <c r="D11">
-        <v>0.06114859978327022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05974220017029907</v>
+      </c>
+      <c r="E11">
+        <v>-0.01048967303878316</v>
+      </c>
+      <c r="F11">
+        <v>-0.004945948164610068</v>
+      </c>
+      <c r="G11">
+        <v>-0.001122109317061021</v>
+      </c>
+      <c r="H11">
+        <v>-0.0304087131392833</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03672276913332774</v>
+        <v>0.03280092568710119</v>
       </c>
       <c r="C12">
-        <v>0.04285357354921795</v>
+        <v>0.04800206557489802</v>
       </c>
       <c r="D12">
-        <v>0.06044489248069351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05602183793078688</v>
+      </c>
+      <c r="E12">
+        <v>5.191364373800531e-05</v>
+      </c>
+      <c r="F12">
+        <v>-0.007984455027344165</v>
+      </c>
+      <c r="G12">
+        <v>0.007010631150547746</v>
+      </c>
+      <c r="H12">
+        <v>-0.03093673412884558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01142194295213309</v>
+        <v>0.01747958925849525</v>
       </c>
       <c r="C13">
-        <v>0.03486329979124575</v>
+        <v>0.03777192175837068</v>
       </c>
       <c r="D13">
-        <v>0.1392720896491304</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.155942919450526</v>
+      </c>
+      <c r="E13">
+        <v>0.02297474852564226</v>
+      </c>
+      <c r="F13">
+        <v>0.06132572706631425</v>
+      </c>
+      <c r="G13">
+        <v>0.02385729250877046</v>
+      </c>
+      <c r="H13">
+        <v>-0.06750280015777087</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.004729635885120441</v>
+        <v>0.007450232988196966</v>
       </c>
       <c r="C14">
-        <v>0.0210653151839255</v>
+        <v>0.02362017232888504</v>
       </c>
       <c r="D14">
-        <v>0.09148648267582055</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.09519354357701684</v>
+      </c>
+      <c r="E14">
+        <v>0.02697496130581537</v>
+      </c>
+      <c r="F14">
+        <v>0.01798721492490413</v>
+      </c>
+      <c r="G14">
+        <v>0.008322537982240223</v>
+      </c>
+      <c r="H14">
+        <v>-0.09316047354062149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002688855021907537</v>
+        <v>0.001203677530347715</v>
       </c>
       <c r="C15">
-        <v>0.005158890608700247</v>
+        <v>0.01231743702262381</v>
       </c>
       <c r="D15">
-        <v>0.00624163734203786</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03578161915319674</v>
+      </c>
+      <c r="E15">
+        <v>0.01010058623884045</v>
+      </c>
+      <c r="F15">
+        <v>0.00235272379400225</v>
+      </c>
+      <c r="G15">
+        <v>0.001807042755233872</v>
+      </c>
+      <c r="H15">
+        <v>-0.02444790518207849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03085123449042591</v>
+        <v>0.02884368549278847</v>
       </c>
       <c r="C16">
-        <v>0.04369611742795153</v>
+        <v>0.04644593008033237</v>
       </c>
       <c r="D16">
-        <v>0.06547011694440122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06173512712666928</v>
+      </c>
+      <c r="E16">
+        <v>0.006659401366442884</v>
+      </c>
+      <c r="F16">
+        <v>0.0009567920844731348</v>
+      </c>
+      <c r="G16">
+        <v>0.0009282752570345145</v>
+      </c>
+      <c r="H16">
+        <v>-0.04479478627834618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.01060812888471166</v>
+        <v>0.008303816961528931</v>
       </c>
       <c r="C19">
-        <v>0.03035725717107893</v>
+        <v>0.02582223883410529</v>
       </c>
       <c r="D19">
-        <v>0.1491252279904819</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1146198402412538</v>
+      </c>
+      <c r="E19">
+        <v>0.05291085366681217</v>
+      </c>
+      <c r="F19">
+        <v>0.004910070542561972</v>
+      </c>
+      <c r="G19">
+        <v>0.02775054405507538</v>
+      </c>
+      <c r="H19">
+        <v>-0.04650921262530833</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01330720933099175</v>
+        <v>0.01494588340003401</v>
       </c>
       <c r="C20">
-        <v>0.03066813094210127</v>
+        <v>0.03500490301363668</v>
       </c>
       <c r="D20">
-        <v>0.09163782984389646</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1040506441417889</v>
+      </c>
+      <c r="E20">
+        <v>0.04615488246338132</v>
+      </c>
+      <c r="F20">
+        <v>0.01687137287442857</v>
+      </c>
+      <c r="G20">
+        <v>-0.00312215285477529</v>
+      </c>
+      <c r="H20">
+        <v>-0.05298035816399188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.007567421909203486</v>
+        <v>0.009234647386672068</v>
       </c>
       <c r="C21">
-        <v>0.03111752859564607</v>
+        <v>0.03778921669238404</v>
       </c>
       <c r="D21">
-        <v>0.1404187077782069</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1417031671058431</v>
+      </c>
+      <c r="E21">
+        <v>0.07702653053769314</v>
+      </c>
+      <c r="F21">
+        <v>0.04906772979925809</v>
+      </c>
+      <c r="G21">
+        <v>0.003546328513219758</v>
+      </c>
+      <c r="H21">
+        <v>-0.0717903364107816</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.001600453032742433</v>
+        <v>0.007649933973718832</v>
       </c>
       <c r="C22">
-        <v>0.04724207922993536</v>
+        <v>0.04146462645838005</v>
       </c>
       <c r="D22">
-        <v>0.1086941496759302</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1622937815469749</v>
+      </c>
+      <c r="E22">
+        <v>0.01465655484085233</v>
+      </c>
+      <c r="F22">
+        <v>0.09175929419306107</v>
+      </c>
+      <c r="G22">
+        <v>0.06281116263571943</v>
+      </c>
+      <c r="H22">
+        <v>-0.05359405740738765</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001448834512177447</v>
+        <v>0.007791069715792325</v>
       </c>
       <c r="C23">
-        <v>0.04754148471735804</v>
+        <v>0.04195223576611423</v>
       </c>
       <c r="D23">
-        <v>0.1082456043746331</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1616250552794412</v>
+      </c>
+      <c r="E23">
+        <v>0.01512594141023101</v>
+      </c>
+      <c r="F23">
+        <v>0.09189266980293884</v>
+      </c>
+      <c r="G23">
+        <v>0.06202933445388079</v>
+      </c>
+      <c r="H23">
+        <v>-0.05302611443944955</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03402641796596687</v>
+        <v>0.03062307987517637</v>
       </c>
       <c r="C24">
-        <v>0.05450466687813791</v>
+        <v>0.05809412452342546</v>
       </c>
       <c r="D24">
-        <v>0.06731000435055404</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06527535778571096</v>
+      </c>
+      <c r="E24">
+        <v>0.007472091844687959</v>
+      </c>
+      <c r="F24">
+        <v>-2.801010438727255e-05</v>
+      </c>
+      <c r="G24">
+        <v>-0.009000815371189113</v>
+      </c>
+      <c r="H24">
+        <v>-0.04793484924907814</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03875035331428166</v>
+        <v>0.03450355935971831</v>
       </c>
       <c r="C25">
-        <v>0.05216084380139092</v>
+        <v>0.05527270020612424</v>
       </c>
       <c r="D25">
-        <v>0.06575018911814615</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06192625842266832</v>
+      </c>
+      <c r="E25">
+        <v>0.007981593105663709</v>
+      </c>
+      <c r="F25">
+        <v>0.002047702831943019</v>
+      </c>
+      <c r="G25">
+        <v>0.00348282986972814</v>
+      </c>
+      <c r="H25">
+        <v>-0.02116809141109259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01494114475890001</v>
+        <v>0.01579097912967656</v>
       </c>
       <c r="C26">
-        <v>0.01063749497100082</v>
+        <v>0.01840513492223297</v>
       </c>
       <c r="D26">
-        <v>0.05871090613632086</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06314687825262938</v>
+      </c>
+      <c r="E26">
+        <v>0.02031524266472812</v>
+      </c>
+      <c r="F26">
+        <v>0.01959116589691478</v>
+      </c>
+      <c r="G26">
+        <v>0.001154116389078137</v>
+      </c>
+      <c r="H26">
+        <v>-0.05747551256398298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1689440457513228</v>
+        <v>0.2173402658203182</v>
       </c>
       <c r="C28">
-        <v>-0.2657641494475077</v>
+        <v>-0.2580368619930564</v>
       </c>
       <c r="D28">
-        <v>-0.003555895441710501</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.0006609519685410337</v>
+      </c>
+      <c r="E28">
+        <v>0.07510894525278294</v>
+      </c>
+      <c r="F28">
+        <v>0.04050000491557166</v>
+      </c>
+      <c r="G28">
+        <v>-0.02685563180961838</v>
+      </c>
+      <c r="H28">
+        <v>0.06041402988997835</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0007293944056711703</v>
+        <v>0.004342865667125659</v>
       </c>
       <c r="C29">
-        <v>0.02181703044429775</v>
+        <v>0.02231830932774524</v>
       </c>
       <c r="D29">
-        <v>0.07985187702000807</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0923851647489743</v>
+      </c>
+      <c r="E29">
+        <v>0.01744855868656959</v>
+      </c>
+      <c r="F29">
+        <v>0.03624057773136419</v>
+      </c>
+      <c r="G29">
+        <v>-0.001683411185388539</v>
+      </c>
+      <c r="H29">
+        <v>-0.08981496412167689</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.02875644627715049</v>
+        <v>0.0361636416748655</v>
       </c>
       <c r="C30">
-        <v>0.05229972290596185</v>
+        <v>0.06246250194166909</v>
       </c>
       <c r="D30">
-        <v>0.1619192382697059</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1735590332696944</v>
+      </c>
+      <c r="E30">
+        <v>0.01986714951380973</v>
+      </c>
+      <c r="F30">
+        <v>0.02732499926404719</v>
+      </c>
+      <c r="G30">
+        <v>-0.02337288391185931</v>
+      </c>
+      <c r="H30">
+        <v>-0.07373241235294864</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06030673709021982</v>
+        <v>0.05191607541310388</v>
       </c>
       <c r="C31">
-        <v>0.0646266893822737</v>
+        <v>0.07663472138582651</v>
       </c>
       <c r="D31">
-        <v>0.07379260686210706</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05659553774028935</v>
+      </c>
+      <c r="E31">
+        <v>0.01652299560440288</v>
+      </c>
+      <c r="F31">
+        <v>0.04326370409843636</v>
+      </c>
+      <c r="G31">
+        <v>0.008326334409296456</v>
+      </c>
+      <c r="H31">
+        <v>-0.01028495600624143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01102095114211463</v>
+        <v>0.01657373848488099</v>
       </c>
       <c r="C32">
-        <v>0.0153725636156467</v>
+        <v>0.01677463257685604</v>
       </c>
       <c r="D32">
-        <v>0.08259897983793002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1148731048698502</v>
+      </c>
+      <c r="E32">
+        <v>0.06561037876540259</v>
+      </c>
+      <c r="F32">
+        <v>0.05324631551330357</v>
+      </c>
+      <c r="G32">
+        <v>0.0001451538853718869</v>
+      </c>
+      <c r="H32">
+        <v>-0.05475642544215421</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02294906912751499</v>
+        <v>0.02463496814015068</v>
       </c>
       <c r="C33">
-        <v>0.03920865167209835</v>
+        <v>0.04472930487392664</v>
       </c>
       <c r="D33">
-        <v>0.1408655019284944</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.135248017611394</v>
+      </c>
+      <c r="E33">
+        <v>0.03580519154020775</v>
+      </c>
+      <c r="F33">
+        <v>0.02606822806352963</v>
+      </c>
+      <c r="G33">
+        <v>0.004033267064437502</v>
+      </c>
+      <c r="H33">
+        <v>-0.06197607764779917</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03040549129001956</v>
+        <v>0.0248817951687263</v>
       </c>
       <c r="C34">
-        <v>0.06610060891262909</v>
+        <v>0.06335677853348182</v>
       </c>
       <c r="D34">
-        <v>0.06667648705283129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05495845353699619</v>
+      </c>
+      <c r="E34">
+        <v>-0.007150616755120183</v>
+      </c>
+      <c r="F34">
+        <v>-0.01117623209623967</v>
+      </c>
+      <c r="G34">
+        <v>0.006809942720831004</v>
+      </c>
+      <c r="H34">
+        <v>-0.04368556338656997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0008687142388436747</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0009987928106728436</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.007722055346233568</v>
+      </c>
+      <c r="E35">
+        <v>-0.000418459690217382</v>
+      </c>
+      <c r="F35">
+        <v>0.0008385196315945116</v>
+      </c>
+      <c r="G35">
+        <v>0.0003205047729839408</v>
+      </c>
+      <c r="H35">
+        <v>-0.004264984083741684</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01781901239658191</v>
+        <v>0.0189415720544351</v>
       </c>
       <c r="C36">
-        <v>0.007344286612816731</v>
+        <v>0.01556597648625942</v>
       </c>
       <c r="D36">
-        <v>0.08105502975719672</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07857732433462117</v>
+      </c>
+      <c r="E36">
+        <v>0.02651954057259129</v>
+      </c>
+      <c r="F36">
+        <v>0.01744383478325805</v>
+      </c>
+      <c r="G36">
+        <v>-0.009189777324062755</v>
+      </c>
+      <c r="H36">
+        <v>-0.04600957736689614</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01900636392677072</v>
+        <v>0.02185672883597398</v>
       </c>
       <c r="C38">
-        <v>0.01811335878600361</v>
+        <v>0.01931886249962048</v>
       </c>
       <c r="D38">
-        <v>0.06489675111351821</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06731758268139619</v>
+      </c>
+      <c r="E38">
+        <v>0.03284863179211342</v>
+      </c>
+      <c r="F38">
+        <v>-0.01072104230477099</v>
+      </c>
+      <c r="G38">
+        <v>0.02611100829618375</v>
+      </c>
+      <c r="H38">
+        <v>-0.04397956056986187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03663975194212129</v>
+        <v>0.03430292389875249</v>
       </c>
       <c r="C39">
-        <v>0.05720636133593824</v>
+        <v>0.06867130862096682</v>
       </c>
       <c r="D39">
-        <v>0.08976703788750781</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1025301827232723</v>
+      </c>
+      <c r="E39">
+        <v>0.009066373541912507</v>
+      </c>
+      <c r="F39">
+        <v>-0.01932656762661645</v>
+      </c>
+      <c r="G39">
+        <v>-0.01858687075133413</v>
+      </c>
+      <c r="H39">
+        <v>-0.0862090179672985</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01406206977334343</v>
+        <v>0.01332595221522196</v>
       </c>
       <c r="C40">
-        <v>0.0419421677235961</v>
+        <v>0.03674988783726424</v>
       </c>
       <c r="D40">
-        <v>0.08465304262662099</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08888786797135202</v>
+      </c>
+      <c r="E40">
+        <v>0.0375111552057902</v>
+      </c>
+      <c r="F40">
+        <v>0.1027086794817262</v>
+      </c>
+      <c r="G40">
+        <v>0.1128978291121117</v>
+      </c>
+      <c r="H40">
+        <v>-0.1476732089908926</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.02479619021934737</v>
+        <v>0.02395899858046678</v>
       </c>
       <c r="C41">
-        <v>0.002394966952271365</v>
+        <v>0.009196426751771274</v>
       </c>
       <c r="D41">
-        <v>0.07033693089658616</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05304278065771556</v>
+      </c>
+      <c r="E41">
+        <v>0.04833605365342219</v>
+      </c>
+      <c r="F41">
+        <v>0.01979246419126348</v>
+      </c>
+      <c r="G41">
+        <v>0.02270473986891628</v>
+      </c>
+      <c r="H41">
+        <v>-0.04105716181510555</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.02622441082247155</v>
+        <v>0.02335596605779207</v>
       </c>
       <c r="C43">
-        <v>0.01350689716528983</v>
+        <v>0.01842275972207568</v>
       </c>
       <c r="D43">
-        <v>0.1104788121969699</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0843641369041022</v>
+      </c>
+      <c r="E43">
+        <v>0.02360636751515854</v>
+      </c>
+      <c r="F43">
+        <v>0.01436538359197745</v>
+      </c>
+      <c r="G43">
+        <v>0.0251246402761271</v>
+      </c>
+      <c r="H43">
+        <v>-0.04668788814210446</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01321381526120203</v>
+        <v>0.01628938203104393</v>
       </c>
       <c r="C44">
-        <v>0.04146747872781278</v>
+        <v>0.04013766321580983</v>
       </c>
       <c r="D44">
-        <v>0.08751412611187466</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1045850907883493</v>
+      </c>
+      <c r="E44">
+        <v>0.04301580428326181</v>
+      </c>
+      <c r="F44">
+        <v>0.02766588901031974</v>
+      </c>
+      <c r="G44">
+        <v>0.01437288772263173</v>
+      </c>
+      <c r="H44">
+        <v>-0.05251917402801862</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01298466096272423</v>
+        <v>0.01222354394245928</v>
       </c>
       <c r="C46">
-        <v>0.02433105093495612</v>
+        <v>0.0305506692832289</v>
       </c>
       <c r="D46">
-        <v>0.0874460795789552</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08864874979509567</v>
+      </c>
+      <c r="E46">
+        <v>0.02953693433373381</v>
+      </c>
+      <c r="F46">
+        <v>0.01637187142024857</v>
+      </c>
+      <c r="G46">
+        <v>-0.005966897260505825</v>
+      </c>
+      <c r="H46">
+        <v>-0.08333943027158293</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09200418246908668</v>
+        <v>0.07984310771355643</v>
       </c>
       <c r="C47">
-        <v>0.07366799868909957</v>
+        <v>0.09144834647247196</v>
       </c>
       <c r="D47">
-        <v>0.04945830236544616</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03590404479936389</v>
+      </c>
+      <c r="E47">
+        <v>0.03178945006394198</v>
+      </c>
+      <c r="F47">
+        <v>0.03179780363881792</v>
+      </c>
+      <c r="G47">
+        <v>0.02006060379024156</v>
+      </c>
+      <c r="H47">
+        <v>0.05219435488722363</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01140581183168417</v>
+        <v>0.01405902137160878</v>
       </c>
       <c r="C48">
-        <v>0.01694091851247541</v>
+        <v>0.02101050057912518</v>
       </c>
       <c r="D48">
-        <v>0.06966742397593843</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07356704941400605</v>
+      </c>
+      <c r="E48">
+        <v>0.0552954531007163</v>
+      </c>
+      <c r="F48">
+        <v>0.02518604415166632</v>
+      </c>
+      <c r="G48">
+        <v>-0.005070485362892625</v>
+      </c>
+      <c r="H48">
+        <v>-0.05551421456006146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.0578762094103079</v>
+        <v>0.04979858992391038</v>
       </c>
       <c r="C50">
-        <v>0.05572981765836416</v>
+        <v>0.06791056997741146</v>
       </c>
       <c r="D50">
-        <v>0.06454576610249262</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05465211706651759</v>
+      </c>
+      <c r="E50">
+        <v>0.01985900748142494</v>
+      </c>
+      <c r="F50">
+        <v>0.04645105782212498</v>
+      </c>
+      <c r="G50">
+        <v>0.04136397239307622</v>
+      </c>
+      <c r="H50">
+        <v>-0.01452297284135199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01052707726499819</v>
+        <v>0.0106337051149518</v>
       </c>
       <c r="C51">
-        <v>0.01549151923528593</v>
+        <v>0.0211573046478256</v>
       </c>
       <c r="D51">
-        <v>0.08002576369410525</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08906602747683673</v>
+      </c>
+      <c r="E51">
+        <v>0.006046856994482704</v>
+      </c>
+      <c r="F51">
+        <v>0.007499422968068003</v>
+      </c>
+      <c r="G51">
+        <v>-0.00849113667995789</v>
+      </c>
+      <c r="H51">
+        <v>-0.08351906944024105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09057093559845991</v>
+        <v>0.08752889713063024</v>
       </c>
       <c r="C53">
-        <v>0.09318496787249454</v>
+        <v>0.1019493353047716</v>
       </c>
       <c r="D53">
-        <v>0.0108652612579565</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01811343119656078</v>
+      </c>
+      <c r="E53">
+        <v>0.09820999380800895</v>
+      </c>
+      <c r="F53">
+        <v>0.09028649855895858</v>
+      </c>
+      <c r="G53">
+        <v>-0.04265293509854712</v>
+      </c>
+      <c r="H53">
+        <v>0.02908182640839643</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02536217108615562</v>
+        <v>0.02613527160730016</v>
       </c>
       <c r="C54">
-        <v>0.0265918438733891</v>
+        <v>0.0337079594454766</v>
       </c>
       <c r="D54">
-        <v>0.09354457092403673</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08743900981235778</v>
+      </c>
+      <c r="E54">
+        <v>0.03394406566078409</v>
+      </c>
+      <c r="F54">
+        <v>0.008558517950653927</v>
+      </c>
+      <c r="G54">
+        <v>0.03233627759495757</v>
+      </c>
+      <c r="H54">
+        <v>-0.07750228056162092</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09086994140592328</v>
+        <v>0.08388819207306465</v>
       </c>
       <c r="C55">
-        <v>0.06934850481717462</v>
+        <v>0.08108221043735891</v>
       </c>
       <c r="D55">
-        <v>-0.007825063427471603</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.004270650017351967</v>
+      </c>
+      <c r="E55">
+        <v>0.0485187948986434</v>
+      </c>
+      <c r="F55">
+        <v>0.06135777182116577</v>
+      </c>
+      <c r="G55">
+        <v>-0.01975168826690178</v>
+      </c>
+      <c r="H55">
+        <v>0.01342089672423093</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1374901144622676</v>
+        <v>0.1267731613124495</v>
       </c>
       <c r="C56">
-        <v>0.1033514481465183</v>
+        <v>0.1285863842768682</v>
       </c>
       <c r="D56">
-        <v>-0.005725152411102314</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.007801719074618207</v>
+      </c>
+      <c r="E56">
+        <v>0.04913959131691076</v>
+      </c>
+      <c r="F56">
+        <v>0.05635436690039127</v>
+      </c>
+      <c r="G56">
+        <v>0.005922905806340467</v>
+      </c>
+      <c r="H56">
+        <v>0.04965445886952428</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.006393755074257825</v>
+        <v>0.007477973889886818</v>
       </c>
       <c r="C58">
-        <v>0.01739361157419434</v>
+        <v>0.03587314843182751</v>
       </c>
       <c r="D58">
-        <v>0.2697840743545046</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3128405716203314</v>
+      </c>
+      <c r="E58">
+        <v>0.08312769079086385</v>
+      </c>
+      <c r="F58">
+        <v>0.09352790362325931</v>
+      </c>
+      <c r="G58">
+        <v>0.04949402913450583</v>
+      </c>
+      <c r="H58">
+        <v>-0.02385075541216965</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1468666899892574</v>
+        <v>0.1812643026361743</v>
       </c>
       <c r="C59">
-        <v>-0.1772950310820695</v>
+        <v>-0.1652593771478798</v>
       </c>
       <c r="D59">
-        <v>0.04212389790585118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.05634346973390369</v>
+      </c>
+      <c r="E59">
+        <v>0.04311138694374145</v>
+      </c>
+      <c r="F59">
+        <v>-0.03159561637651993</v>
+      </c>
+      <c r="G59">
+        <v>0.0003866972163351236</v>
+      </c>
+      <c r="H59">
+        <v>0.01619700731897236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2397794423031017</v>
+        <v>0.2264276473038323</v>
       </c>
       <c r="C60">
-        <v>0.07649085679117008</v>
+        <v>0.1032820230368826</v>
       </c>
       <c r="D60">
-        <v>0.1886878842181408</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1325196162052387</v>
+      </c>
+      <c r="E60">
+        <v>-0.3192732435430425</v>
+      </c>
+      <c r="F60">
+        <v>-0.08871692438718583</v>
+      </c>
+      <c r="G60">
+        <v>-0.04400344712257424</v>
+      </c>
+      <c r="H60">
+        <v>0.1413894606041313</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04335588881000437</v>
+        <v>0.03957711836785693</v>
       </c>
       <c r="C61">
-        <v>0.05330446194613814</v>
+        <v>0.06222843079209148</v>
       </c>
       <c r="D61">
-        <v>0.1016682300005211</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09326440531161363</v>
+      </c>
+      <c r="E61">
+        <v>0.001748492238736478</v>
+      </c>
+      <c r="F61">
+        <v>-0.01331695759180622</v>
+      </c>
+      <c r="G61">
+        <v>-0.005228496502263248</v>
+      </c>
+      <c r="H61">
+        <v>-0.04724523106822553</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01646055478435247</v>
+        <v>0.01551157737493801</v>
       </c>
       <c r="C63">
-        <v>0.02217272661126982</v>
+        <v>0.03201727225493741</v>
       </c>
       <c r="D63">
-        <v>0.07920060044238759</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07488206042578845</v>
+      </c>
+      <c r="E63">
+        <v>0.01002130937243624</v>
+      </c>
+      <c r="F63">
+        <v>0.01382034366600009</v>
+      </c>
+      <c r="G63">
+        <v>-0.01063082005211272</v>
+      </c>
+      <c r="H63">
+        <v>-0.05069347675792352</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05819614355875306</v>
+        <v>0.05020009825340367</v>
       </c>
       <c r="C64">
-        <v>0.07273332409201433</v>
+        <v>0.08108284149307755</v>
       </c>
       <c r="D64">
-        <v>0.05358884212826958</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05612594652454281</v>
+      </c>
+      <c r="E64">
+        <v>0.01818797719370888</v>
+      </c>
+      <c r="F64">
+        <v>0.005013747853620596</v>
+      </c>
+      <c r="G64">
+        <v>-0.06457207641981574</v>
+      </c>
+      <c r="H64">
+        <v>-0.03162657406196925</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.04001006378648295</v>
+        <v>0.03975848648549513</v>
       </c>
       <c r="C65">
-        <v>0.02191979920367682</v>
+        <v>0.02900346088386742</v>
       </c>
       <c r="D65">
-        <v>0.126215086471349</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1175989846443908</v>
+      </c>
+      <c r="E65">
+        <v>-0.01237103831649175</v>
+      </c>
+      <c r="F65">
+        <v>0.01360272138655972</v>
+      </c>
+      <c r="G65">
+        <v>0.0008938249169819862</v>
+      </c>
+      <c r="H65">
+        <v>-0.02389293689527837</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03989042498329239</v>
+        <v>0.03776927971870511</v>
       </c>
       <c r="C66">
-        <v>0.06439712573406134</v>
+        <v>0.07770538165241618</v>
       </c>
       <c r="D66">
-        <v>0.109222584153441</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1288439520007138</v>
+      </c>
+      <c r="E66">
+        <v>0.008529747274663194</v>
+      </c>
+      <c r="F66">
+        <v>-0.008870235683847493</v>
+      </c>
+      <c r="G66">
+        <v>0.001834299707795402</v>
+      </c>
+      <c r="H66">
+        <v>-0.05755458514639716</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03937084632475423</v>
+        <v>0.03844183195267927</v>
       </c>
       <c r="C67">
-        <v>0.02279228810210066</v>
+        <v>0.02621357050655414</v>
       </c>
       <c r="D67">
-        <v>0.03435627294105218</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02738924427489263</v>
+      </c>
+      <c r="E67">
+        <v>0.01149341505286697</v>
+      </c>
+      <c r="F67">
+        <v>-0.01858556351798048</v>
+      </c>
+      <c r="G67">
+        <v>0.02052806415320777</v>
+      </c>
+      <c r="H67">
+        <v>-0.04135728153957931</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1692341194151918</v>
+        <v>0.2018190070145554</v>
       </c>
       <c r="C68">
-        <v>-0.2204918407549052</v>
+        <v>-0.1952811305101192</v>
       </c>
       <c r="D68">
-        <v>0.02071516739783862</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02493151151587068</v>
+      </c>
+      <c r="E68">
+        <v>0.0244258561948459</v>
+      </c>
+      <c r="F68">
+        <v>0.03012773699153285</v>
+      </c>
+      <c r="G68">
+        <v>0.002084246023080794</v>
+      </c>
+      <c r="H68">
+        <v>-0.01095513957098501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.0826756870812021</v>
+        <v>0.07141341274052584</v>
       </c>
       <c r="C69">
-        <v>0.08969340980513577</v>
+        <v>0.09893195927070612</v>
       </c>
       <c r="D69">
-        <v>0.07163519306529562</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.05148818038099486</v>
+      </c>
+      <c r="E69">
+        <v>0.01975767310158567</v>
+      </c>
+      <c r="F69">
+        <v>0.01322342979658719</v>
+      </c>
+      <c r="G69">
+        <v>0.008940262082842411</v>
+      </c>
+      <c r="H69">
+        <v>0.02524758177760188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1520906068253171</v>
+        <v>0.1865883035426051</v>
       </c>
       <c r="C71">
-        <v>-0.2215828059345078</v>
+        <v>-0.2023506587702419</v>
       </c>
       <c r="D71">
-        <v>0.03145342261251119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03824836263066043</v>
+      </c>
+      <c r="E71">
+        <v>0.04256038134910017</v>
+      </c>
+      <c r="F71">
+        <v>0.06771149728920831</v>
+      </c>
+      <c r="G71">
+        <v>0.03051117454315528</v>
+      </c>
+      <c r="H71">
+        <v>0.0109279822150606</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1069405279812506</v>
+        <v>0.1002642625630134</v>
       </c>
       <c r="C72">
-        <v>0.05632064741589094</v>
+        <v>0.07694947997762031</v>
       </c>
       <c r="D72">
-        <v>0.09445524572474021</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09528552066555457</v>
+      </c>
+      <c r="E72">
+        <v>-0.05270720706152631</v>
+      </c>
+      <c r="F72">
+        <v>0.02900215656607945</v>
+      </c>
+      <c r="G72">
+        <v>-0.03577172587430734</v>
+      </c>
+      <c r="H72">
+        <v>-0.03214121490075245</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2550204779158785</v>
+        <v>0.2341341309836992</v>
       </c>
       <c r="C73">
-        <v>0.04320690638123448</v>
+        <v>0.09317785791303908</v>
       </c>
       <c r="D73">
-        <v>0.2954663014192149</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1685872723028699</v>
+      </c>
+      <c r="E73">
+        <v>-0.6208604456243318</v>
+      </c>
+      <c r="F73">
+        <v>-0.1990269553521951</v>
+      </c>
+      <c r="G73">
+        <v>-0.07161039947890241</v>
+      </c>
+      <c r="H73">
+        <v>0.1839215004866935</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1059531577587756</v>
+        <v>0.09506232504449318</v>
       </c>
       <c r="C74">
-        <v>0.07257738090108239</v>
+        <v>0.09182515429196805</v>
       </c>
       <c r="D74">
-        <v>-0.007035304150105123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01199232524850049</v>
+      </c>
+      <c r="E74">
+        <v>0.03930801659803987</v>
+      </c>
+      <c r="F74">
+        <v>0.07436630032055523</v>
+      </c>
+      <c r="G74">
+        <v>-0.04115187390448284</v>
+      </c>
+      <c r="H74">
+        <v>0.05509600775554619</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2485355817583329</v>
+        <v>0.2226852641601506</v>
       </c>
       <c r="C75">
-        <v>0.1295365872906807</v>
+        <v>0.1672154684640646</v>
       </c>
       <c r="D75">
-        <v>-0.07744049020161536</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.0971549744271122</v>
+      </c>
+      <c r="E75">
+        <v>0.1054173877701996</v>
+      </c>
+      <c r="F75">
+        <v>0.02957913131757256</v>
+      </c>
+      <c r="G75">
+        <v>-0.007053717015308791</v>
+      </c>
+      <c r="H75">
+        <v>0.08835707925396916</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1373466115713058</v>
+        <v>0.1231676050317766</v>
       </c>
       <c r="C76">
-        <v>0.0957331730690115</v>
+        <v>0.1141707993110444</v>
       </c>
       <c r="D76">
-        <v>-0.005660819089128251</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.007545653556556075</v>
+      </c>
+      <c r="E76">
+        <v>0.09986853398851271</v>
+      </c>
+      <c r="F76">
+        <v>0.04803737998604501</v>
+      </c>
+      <c r="G76">
+        <v>-0.02481086406626904</v>
+      </c>
+      <c r="H76">
+        <v>-0.0008504716772831625</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.05090283215358705</v>
+        <v>0.05604909244816161</v>
       </c>
       <c r="C77">
-        <v>0.06533437632617502</v>
+        <v>0.07504319634107239</v>
       </c>
       <c r="D77">
-        <v>0.04771912409546172</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1310354311414756</v>
+      </c>
+      <c r="E77">
+        <v>0.3726633798646747</v>
+      </c>
+      <c r="F77">
+        <v>-0.2927137505905434</v>
+      </c>
+      <c r="G77">
+        <v>0.4759609757304505</v>
+      </c>
+      <c r="H77">
+        <v>0.5986469844961757</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.0422159294560926</v>
+        <v>0.04513932642926334</v>
       </c>
       <c r="C78">
-        <v>0.0603411134803728</v>
+        <v>0.06750080004477751</v>
       </c>
       <c r="D78">
-        <v>0.1305219157603519</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1364650649113212</v>
+      </c>
+      <c r="E78">
+        <v>0.01083547445838283</v>
+      </c>
+      <c r="F78">
+        <v>0.03484534381846107</v>
+      </c>
+      <c r="G78">
+        <v>0.008053153841332292</v>
+      </c>
+      <c r="H78">
+        <v>-0.0002169228291444536</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.04265490841045321</v>
+        <v>0.04932868074830586</v>
       </c>
       <c r="C79">
-        <v>0.08114322332685167</v>
+        <v>0.09886893108328007</v>
       </c>
       <c r="D79">
-        <v>-0.08623273346667702</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02291406888216587</v>
+      </c>
+      <c r="E79">
+        <v>0.2139528000563695</v>
+      </c>
+      <c r="F79">
+        <v>0.3436120010434992</v>
+      </c>
+      <c r="G79">
+        <v>-0.6652138897583387</v>
+      </c>
+      <c r="H79">
+        <v>0.3738482988864484</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.02555345672445023</v>
+        <v>0.02412644830295602</v>
       </c>
       <c r="C80">
-        <v>0.0466520516423355</v>
+        <v>0.04712113476730189</v>
       </c>
       <c r="D80">
-        <v>0.0183163144416816</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01836869149292178</v>
+      </c>
+      <c r="E80">
+        <v>0.01480092552581919</v>
+      </c>
+      <c r="F80">
+        <v>0.006977622177761275</v>
+      </c>
+      <c r="G80">
+        <v>-0.003092800963201566</v>
+      </c>
+      <c r="H80">
+        <v>-0.07166186176682836</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1373126164725204</v>
+        <v>0.118828937601435</v>
       </c>
       <c r="C81">
-        <v>0.1035645819414248</v>
+        <v>0.124098382089358</v>
       </c>
       <c r="D81">
-        <v>-0.07031489113499929</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07477493577117503</v>
+      </c>
+      <c r="E81">
+        <v>0.09840323678001726</v>
+      </c>
+      <c r="F81">
+        <v>0.06700847231995465</v>
+      </c>
+      <c r="G81">
+        <v>-0.005070195317681834</v>
+      </c>
+      <c r="H81">
+        <v>0.02502794605835205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.3168498104970079</v>
+        <v>0.2624955046942717</v>
       </c>
       <c r="C82">
-        <v>0.2644112905190532</v>
+        <v>0.2727139302450728</v>
       </c>
       <c r="D82">
-        <v>-0.2364705719428535</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.237248099896153</v>
+      </c>
+      <c r="E82">
+        <v>-0.02939102719011722</v>
+      </c>
+      <c r="F82">
+        <v>0.0191450393614951</v>
+      </c>
+      <c r="G82">
+        <v>0.1986100508580345</v>
+      </c>
+      <c r="H82">
+        <v>0.06477545358027165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02758128411737247</v>
+        <v>0.01963729020486646</v>
       </c>
       <c r="C83">
-        <v>0.05417598046379715</v>
+        <v>0.05047971738774536</v>
       </c>
       <c r="D83">
-        <v>0.05150734253823541</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05169322520847466</v>
+      </c>
+      <c r="E83">
+        <v>0.03775254233251064</v>
+      </c>
+      <c r="F83">
+        <v>-0.05796943477159885</v>
+      </c>
+      <c r="G83">
+        <v>0.05915003370082891</v>
+      </c>
+      <c r="H83">
+        <v>0.05190019831493693</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0007694791016044832</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.005084550687546547</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01865662616204041</v>
+      </c>
+      <c r="E84">
+        <v>0.01654151531170339</v>
+      </c>
+      <c r="F84">
+        <v>0.01626393457015613</v>
+      </c>
+      <c r="G84">
+        <v>2.786083204222372e-05</v>
+      </c>
+      <c r="H84">
+        <v>-0.02415806809773301</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1719838325828341</v>
+        <v>0.1515207511819286</v>
       </c>
       <c r="C85">
-        <v>0.111507291446023</v>
+        <v>0.1413917739956178</v>
       </c>
       <c r="D85">
-        <v>-0.03687194348034812</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.05880781833167519</v>
+      </c>
+      <c r="E85">
+        <v>0.03323704606530807</v>
+      </c>
+      <c r="F85">
+        <v>0.05966475202693292</v>
+      </c>
+      <c r="G85">
+        <v>-0.09227595589394048</v>
+      </c>
+      <c r="H85">
+        <v>0.01988352918172475</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01756137142673453</v>
+        <v>0.01853834542420512</v>
       </c>
       <c r="C86">
-        <v>0.03416138108976512</v>
+        <v>0.03362050547758601</v>
       </c>
       <c r="D86">
-        <v>0.115729891257169</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.117495669262804</v>
+      </c>
+      <c r="E86">
+        <v>0.03046149341828879</v>
+      </c>
+      <c r="F86">
+        <v>-0.003950243316237887</v>
+      </c>
+      <c r="G86">
+        <v>0.07667081847168314</v>
+      </c>
+      <c r="H86">
+        <v>0.02241217925530913</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.0218685256472403</v>
+        <v>0.03166216475092851</v>
       </c>
       <c r="C87">
-        <v>0.01799381521159392</v>
+        <v>0.0260515240501048</v>
       </c>
       <c r="D87">
-        <v>0.101809036516794</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1343521967886386</v>
+      </c>
+      <c r="E87">
+        <v>0.06093011534519854</v>
+      </c>
+      <c r="F87">
+        <v>0.02145112373064742</v>
+      </c>
+      <c r="G87">
+        <v>0.007233151197176014</v>
+      </c>
+      <c r="H87">
+        <v>-0.06293331246003205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.07427241462369381</v>
+        <v>0.06520515515573577</v>
       </c>
       <c r="C88">
-        <v>0.0393098920463214</v>
+        <v>0.05379962289312944</v>
       </c>
       <c r="D88">
-        <v>0.04577349512008794</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02408993867536529</v>
+      </c>
+      <c r="E88">
+        <v>-0.0008274259107380725</v>
+      </c>
+      <c r="F88">
+        <v>0.0303486286963027</v>
+      </c>
+      <c r="G88">
+        <v>-0.007352925967367405</v>
+      </c>
+      <c r="H88">
+        <v>-0.02695427211576874</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2363086831890323</v>
+        <v>0.2855706994694301</v>
       </c>
       <c r="C89">
-        <v>-0.3947889262879535</v>
+        <v>-0.3435741044662567</v>
       </c>
       <c r="D89">
-        <v>-0.006623714749031494</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.003626643840563615</v>
+      </c>
+      <c r="E89">
+        <v>0.06025053406823212</v>
+      </c>
+      <c r="F89">
+        <v>0.001435398726590503</v>
+      </c>
+      <c r="G89">
+        <v>-0.0406676687642856</v>
+      </c>
+      <c r="H89">
+        <v>-0.085292219523584</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2069921115945182</v>
+        <v>0.2426354935623227</v>
       </c>
       <c r="C90">
-        <v>-0.295418300080138</v>
+        <v>-0.2467846429000622</v>
       </c>
       <c r="D90">
-        <v>0.002422555828852232</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02029916611123948</v>
+      </c>
+      <c r="E90">
+        <v>0.04827995046862298</v>
+      </c>
+      <c r="F90">
+        <v>-0.0005097976371017746</v>
+      </c>
+      <c r="G90">
+        <v>0.04634337444582019</v>
+      </c>
+      <c r="H90">
+        <v>-0.04748244174577045</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1755942389063004</v>
+        <v>0.151324703578347</v>
       </c>
       <c r="C91">
-        <v>0.146422960882559</v>
+        <v>0.1596198398281075</v>
       </c>
       <c r="D91">
-        <v>-0.08232103375441904</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08433355995743513</v>
+      </c>
+      <c r="E91">
+        <v>0.1035359050819282</v>
+      </c>
+      <c r="F91">
+        <v>0.06948692431228365</v>
+      </c>
+      <c r="G91">
+        <v>-0.05149250769529839</v>
+      </c>
+      <c r="H91">
+        <v>0.08303987958643803</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1824248110970722</v>
+        <v>0.2291587494495261</v>
       </c>
       <c r="C92">
-        <v>-0.2797502126286346</v>
+        <v>-0.2680709554480906</v>
       </c>
       <c r="D92">
-        <v>0.02246754293861033</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03313771537590158</v>
+      </c>
+      <c r="E92">
+        <v>0.08998408317986349</v>
+      </c>
+      <c r="F92">
+        <v>0.01285602967040505</v>
+      </c>
+      <c r="G92">
+        <v>0.02893161837935865</v>
+      </c>
+      <c r="H92">
+        <v>-0.01360484338485913</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2330203217737633</v>
+        <v>0.2621439878603433</v>
       </c>
       <c r="C93">
-        <v>-0.303613527021568</v>
+        <v>-0.2542983097691493</v>
       </c>
       <c r="D93">
-        <v>0.01175864571134797</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.005580280945735293</v>
+      </c>
+      <c r="E93">
+        <v>-0.01363379399246546</v>
+      </c>
+      <c r="F93">
+        <v>0.02474287674756738</v>
+      </c>
+      <c r="G93">
+        <v>-0.009566260873755001</v>
+      </c>
+      <c r="H93">
+        <v>-0.009438371579207436</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3782864110954708</v>
+        <v>0.3319044828890029</v>
       </c>
       <c r="C94">
-        <v>0.2073073744872483</v>
+        <v>0.2640511217003674</v>
       </c>
       <c r="D94">
-        <v>-0.4468054747563907</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4408409935424772</v>
+      </c>
+      <c r="E94">
+        <v>0.04985158989810472</v>
+      </c>
+      <c r="F94">
+        <v>-0.04366230181715458</v>
+      </c>
+      <c r="G94">
+        <v>0.1230325375918982</v>
+      </c>
+      <c r="H94">
+        <v>-0.4105696453242043</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07102026064586338</v>
+        <v>0.06812107643857966</v>
       </c>
       <c r="C95">
-        <v>0.05749618566466679</v>
+        <v>0.06352835120948706</v>
       </c>
       <c r="D95">
-        <v>0.07849359202181516</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.08532285271020472</v>
+      </c>
+      <c r="E95">
+        <v>0.2818788934696181</v>
+      </c>
+      <c r="F95">
+        <v>-0.7836839699223048</v>
+      </c>
+      <c r="G95">
+        <v>-0.4219159515913176</v>
+      </c>
+      <c r="H95">
+        <v>-0.1739912230995005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1682401924081489</v>
+        <v>0.1626241466431073</v>
       </c>
       <c r="C98">
-        <v>0.04151835875811286</v>
+        <v>0.07034597526495627</v>
       </c>
       <c r="D98">
-        <v>0.1652600172601369</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1228109070042606</v>
+      </c>
+      <c r="E98">
+        <v>-0.3094884980823902</v>
+      </c>
+      <c r="F98">
+        <v>-0.04177466273555318</v>
+      </c>
+      <c r="G98">
+        <v>-0.03971721933790023</v>
+      </c>
+      <c r="H98">
+        <v>0.105459105781097</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.0007626231607218349</v>
+        <v>0.004427089713483774</v>
       </c>
       <c r="C101">
-        <v>0.02116608410523427</v>
+        <v>0.02155730228752674</v>
       </c>
       <c r="D101">
-        <v>0.07998655541828598</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0922359635890998</v>
+      </c>
+      <c r="E101">
+        <v>0.01826332125745192</v>
+      </c>
+      <c r="F101">
+        <v>0.03577151024040853</v>
+      </c>
+      <c r="G101">
+        <v>-0.001874535361980499</v>
+      </c>
+      <c r="H101">
+        <v>-0.08923611824167949</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.12314134328295</v>
+        <v>0.1019188855668236</v>
       </c>
       <c r="C102">
-        <v>0.1170201721427527</v>
+        <v>0.1214561051927579</v>
       </c>
       <c r="D102">
-        <v>-0.05301739594956976</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06362490038650369</v>
+      </c>
+      <c r="E102">
+        <v>0.03034958788204717</v>
+      </c>
+      <c r="F102">
+        <v>-0.005634570909387432</v>
+      </c>
+      <c r="G102">
+        <v>0.01917732481607689</v>
+      </c>
+      <c r="H102">
+        <v>0.03898329697649743</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
